--- a/Координаты пример.xlsx
+++ b/Координаты пример.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\Координаты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfybb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9FE2AD-8C36-47BD-AD6E-C5ACD6E6F6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КМ" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,25 @@
   <definedNames>
     <definedName name="ТГ">2022</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Широта</t>
   </si>
@@ -42,27 +51,6 @@
     <t>Адрес</t>
   </si>
   <si>
-    <t>НБ Борисов</t>
-  </si>
-  <si>
-    <t>НБ Солигорск</t>
-  </si>
-  <si>
-    <t>НБ Гродно</t>
-  </si>
-  <si>
-    <t>НБ Гомель</t>
-  </si>
-  <si>
-    <t>НБ Витебск</t>
-  </si>
-  <si>
-    <t>НБ Брест (Аренда)</t>
-  </si>
-  <si>
-    <t>НБ Михоновичи</t>
-  </si>
-  <si>
     <t>Гродненская область, Минчики, Р99 (1 км, справа, вблизи д.Минчики)</t>
   </si>
   <si>
@@ -78,15 +66,6 @@
     <t>Номер АЗС</t>
   </si>
   <si>
-    <t>Адрес ЕМИС</t>
-  </si>
-  <si>
-    <t>Широта ЕМИС</t>
-  </si>
-  <si>
-    <t>Долгота ЕМИС</t>
-  </si>
-  <si>
     <t>Адрес Яндекс</t>
   </si>
   <si>
@@ -99,30 +78,9 @@
     <t>ИД ЕМИС</t>
   </si>
   <si>
-    <t>Тип сети</t>
-  </si>
-  <si>
-    <t>ГПН</t>
-  </si>
-  <si>
-    <t>Для А100 - не ЕМИС, а направленные данные из Беларуси</t>
-  </si>
-  <si>
-    <t>Для А100 - номер АЗС по Яндекс картам</t>
-  </si>
-  <si>
     <t>Координаты Яндекс</t>
   </si>
   <si>
-    <t>Широта ГАП</t>
-  </si>
-  <si>
-    <t>Долгота ГАП</t>
-  </si>
-  <si>
-    <t>Для А100 - рассчитано по ГАП</t>
-  </si>
-  <si>
     <t>Гродненская область, Минчики, 10</t>
   </si>
   <si>
@@ -147,19 +105,49 @@
     <t>54,018708, 28,208936</t>
   </si>
   <si>
-    <t>Примечание</t>
+    <t>Объект_1</t>
+  </si>
+  <si>
+    <t>Объект_2</t>
+  </si>
+  <si>
+    <t>Объект_3</t>
+  </si>
+  <si>
+    <t>Объект_4</t>
+  </si>
+  <si>
+    <t>Объект_5</t>
+  </si>
+  <si>
+    <t>Объект_6</t>
+  </si>
+  <si>
+    <t>Объект_7</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t>Столбец2</t>
+  </si>
+  <si>
+    <t>Столбец3</t>
+  </si>
+  <si>
+    <t>Столбец4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +183,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -223,15 +217,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -259,62 +251,9 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Процентный 2" xfId="1"/>
+    <cellStyle name="Процентный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <b val="0"/>
@@ -552,30 +491,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A2:M6" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A2:M6"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="Тип сети" dataDxfId="12"/>
-    <tableColumn id="2" name="Номер АЗС" dataDxfId="11"/>
-    <tableColumn id="3" name="ИД ЕМИС" dataDxfId="10"/>
-    <tableColumn id="4" name="Адрес ЕМИС" dataDxfId="9"/>
-    <tableColumn id="5" name="Широта ЕМИС" dataDxfId="8"/>
-    <tableColumn id="6" name="Долгота ЕМИС" dataDxfId="7"/>
-    <tableColumn id="7" name="Адрес Яндекс" dataDxfId="6"/>
-    <tableColumn id="10" name="Координаты Яндекс" dataDxfId="5"/>
-    <tableColumn id="8" name="Широта Яндекс" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A2:J6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A2:J6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Столбец4" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Номер АЗС" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ИД ЕМИС" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Столбец1" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Столбец2" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Столбец3" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Адрес Яндекс" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Координаты Яндекс" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Широта Яндекс" dataDxfId="1">
       <calculatedColumnFormula>IFERROR(LEFT(Таблица1[[#This Row],[Координаты Яндекс]],LEN(Таблица1[[#This Row],[Координаты Яндекс]])-SEARCH(", ",Таблица1[[#This Row],[Координаты Яндекс]],1)-1),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Долгота Яндекс" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Долгота Яндекс" dataDxfId="0">
       <calculatedColumnFormula>IFERROR(RIGHT(Таблица1[[#This Row],[Координаты Яндекс]],LEN(Таблица1[[#This Row],[Координаты Яндекс]])-SEARCH(", ",Таблица1[[#This Row],[Координаты Яндекс]],1)-1),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Широта ГАП" dataDxfId="2">
-      <calculatedColumnFormula>Таблица1[[#This Row],[Широта Яндекс]]-Таблица1[[#This Row],[Широта ЕМИС]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="Долгота ГАП" dataDxfId="1">
-      <calculatedColumnFormula>Таблица1[[#This Row],[Долгота Яндекс]]-Таблица1[[#This Row],[Долгота ЕМИС]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="Примечание" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -843,27 +775,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="7.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="1"/>
-    <col min="7" max="12" width="9.1796875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="12" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D1" s="8"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E2" s="1" t="s">
@@ -950,32 +882,29 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>10</v>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -989,11 +918,8 @@
       <c r="C6" s="3">
         <v>23.911490000000001</v>
       </c>
-      <c r="D6" s="1">
-        <v>66001</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F6" s="5">
         <v>408.44</v>
@@ -1028,11 +954,8 @@
       <c r="C7" s="3">
         <v>27.487719999999999</v>
       </c>
-      <c r="D7" s="1">
-        <v>66002</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F7" s="5">
         <v>93.92</v>
@@ -1057,21 +980,18 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>53,82849 25,37619</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>53.828490000000002</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>25.376190000000001</v>
       </c>
-      <c r="D8" s="1">
-        <v>66004</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F8" s="5">
         <v>269.08</v>
@@ -1096,21 +1016,18 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="str">
+      <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>54,032453 28,205772</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>54.032452999999997</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>28.205772</v>
       </c>
-      <c r="D9" s="1">
-        <v>66005</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F9" s="5">
         <v>31.9</v>
@@ -1147,6 +1064,7 @@
       <c r="C12" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F6:L9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
@@ -1163,267 +1081,181 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" style="8" customWidth="1"/>
-    <col min="5" max="6" width="10.26953125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="41.453125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" customWidth="1"/>
-    <col min="9" max="12" width="12.26953125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="7.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
+    <col min="9" max="12" width="12.28515625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="15"/>
-      <c r="I1" s="16" t="str">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="I1" s="14" t="str">
         <f>IFERROR(LEFT(Таблица1[[#This Row],[Координаты Яндекс]],LEN(Таблица1[[#This Row],[Координаты Яндекс]])-SEARCH(", ",Таблица1[[#This Row],[Координаты Яндекс]],1)-1),"")</f>
         <v/>
       </c>
-      <c r="J1" s="16" t="str">
+      <c r="J1" s="14" t="str">
         <f>IFERROR(RIGHT(Таблица1[[#This Row],[Координаты Яндекс]],LEN(Таблица1[[#This Row],[Координаты Яндекс]])-SEARCH(", ",Таблица1[[#This Row],[Координаты Яндекс]],1)-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="12" t="s">
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="8">
+        <v>66001</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5809</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="10">
-        <v>66001</v>
-      </c>
-      <c r="C3" s="10">
-        <v>5809</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="13">
-        <v>53.12041</v>
-      </c>
-      <c r="F3" s="13">
-        <v>23.911490000000001</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="19" t="str">
+      <c r="I3" s="17" t="str">
         <f>IFERROR(LEFT(Таблица1[[#This Row],[Координаты Яндекс]],LEN(Таблица1[[#This Row],[Координаты Яндекс]])-SEARCH(", ",Таблица1[[#This Row],[Координаты Яндекс]],1)-1),"")</f>
         <v>53,120403</v>
       </c>
-      <c r="J3" s="19" t="str">
+      <c r="J3" s="17" t="str">
         <f>IFERROR(RIGHT(Таблица1[[#This Row],[Координаты Яндекс]],LEN(Таблица1[[#This Row],[Координаты Яндекс]])-SEARCH(", ",Таблица1[[#This Row],[Координаты Яндекс]],1)-1),"")</f>
         <v>23,911490</v>
       </c>
-      <c r="K3" s="11">
-        <f>Таблица1[[#This Row],[Широта Яндекс]]-Таблица1[[#This Row],[Широта ЕМИС]]</f>
-        <v>-6.9999999965375537E-6</v>
-      </c>
-      <c r="L3" s="11">
-        <f>Таблица1[[#This Row],[Долгота Яндекс]]-Таблица1[[#This Row],[Долгота ЕМИС]]</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="17"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>66002</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>10746</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13">
-        <v>53.893180000000001</v>
-      </c>
-      <c r="F4" s="13">
-        <v>27.487719999999999</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="19" t="str">
+      <c r="G4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="17" t="str">
         <f>IFERROR(LEFT(Таблица1[[#This Row],[Координаты Яндекс]],LEN(Таблица1[[#This Row],[Координаты Яндекс]])-SEARCH(", ",Таблица1[[#This Row],[Координаты Яндекс]],1)-1),"")</f>
         <v>53,893049</v>
       </c>
-      <c r="J4" s="19" t="str">
+      <c r="J4" s="17" t="str">
         <f>IFERROR(RIGHT(Таблица1[[#This Row],[Координаты Яндекс]],LEN(Таблица1[[#This Row],[Координаты Яндекс]])-SEARCH(", ",Таблица1[[#This Row],[Координаты Яндекс]],1)-1),"")</f>
         <v>27,487649</v>
       </c>
-      <c r="K4" s="11">
-        <f>Таблица1[[#This Row],[Широта Яндекс]]-Таблица1[[#This Row],[Широта ЕМИС]]</f>
-        <v>-1.3100000000321188E-4</v>
-      </c>
-      <c r="L4" s="11">
-        <f>Таблица1[[#This Row],[Долгота Яндекс]]-Таблица1[[#This Row],[Долгота ЕМИС]]</f>
-        <v>-7.0999999998377916E-5</v>
-      </c>
-      <c r="M4" s="17"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>66004</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>12421</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="13">
-        <v>53.828490000000002</v>
-      </c>
-      <c r="F5" s="13">
-        <v>25.376190000000001</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="19" t="str">
+      <c r="G5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="17" t="str">
         <f>IFERROR(LEFT(Таблица1[[#This Row],[Координаты Яндекс]],LEN(Таблица1[[#This Row],[Координаты Яндекс]])-SEARCH(", ",Таблица1[[#This Row],[Координаты Яндекс]],1)-1),"")</f>
         <v>53,828567</v>
       </c>
-      <c r="J5" s="19" t="str">
+      <c r="J5" s="17" t="str">
         <f>IFERROR(RIGHT(Таблица1[[#This Row],[Координаты Яндекс]],LEN(Таблица1[[#This Row],[Координаты Яндекс]])-SEARCH(", ",Таблица1[[#This Row],[Координаты Яндекс]],1)-1),"")</f>
         <v>25,376129</v>
       </c>
-      <c r="K5" s="11">
-        <f>Таблица1[[#This Row],[Широта Яндекс]]-Таблица1[[#This Row],[Широта ЕМИС]]</f>
-        <v>7.6999999997440227E-5</v>
-      </c>
-      <c r="L5" s="11">
-        <f>Таблица1[[#This Row],[Долгота Яндекс]]-Таблица1[[#This Row],[Долгота ЕМИС]]</f>
-        <v>-6.1000000002309207E-5</v>
-      </c>
-      <c r="M5" s="17"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>66005</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>2781</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="13">
-        <v>54.012439999999998</v>
-      </c>
-      <c r="F6" s="13">
-        <v>28.18385</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="19" t="str">
+      <c r="G6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="17" t="str">
         <f>IFERROR(LEFT(Таблица1[[#This Row],[Координаты Яндекс]],LEN(Таблица1[[#This Row],[Координаты Яндекс]])-SEARCH(", ",Таблица1[[#This Row],[Координаты Яндекс]],1)-1),"")</f>
         <v>54,018708</v>
       </c>
-      <c r="J6" s="19" t="str">
+      <c r="J6" s="17" t="str">
         <f>IFERROR(RIGHT(Таблица1[[#This Row],[Координаты Яндекс]],LEN(Таблица1[[#This Row],[Координаты Яндекс]])-SEARCH(", ",Таблица1[[#This Row],[Координаты Яндекс]],1)-1),"")</f>
         <v>28,208936</v>
       </c>
-      <c r="K6" s="11">
-        <f>Таблица1[[#This Row],[Широта Яндекс]]-Таблица1[[#This Row],[Широта ЕМИС]]</f>
-        <v>6.267999999998608E-3</v>
-      </c>
-      <c r="L6" s="11">
-        <f>Таблица1[[#This Row],[Долгота Яндекс]]-Таблица1[[#This Row],[Долгота ЕМИС]]</f>
-        <v>2.5086000000001718E-2</v>
-      </c>
-      <c r="M6" s="17"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L6">
     <cfRule type="colorScale" priority="13">
